--- a/topo_alarm/alarm.xlsx
+++ b/topo_alarm/alarm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/Desktop/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/workspace/TopoViewer/topo_alarm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFE6BA-7815-924C-A070-87D832CC13C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D31A5A-19C6-4645-BF9E-EED605A0B33F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2707,7 +2707,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="298">
   <si>
     <t>Acked</t>
   </si>
@@ -3663,6 +3663,30 @@
   </si>
   <si>
     <t>2019-04-19 12:54:46</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:54:56</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:48:56</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:48:55</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:48:52</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:54:36</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:54:13</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:54:11</t>
+  </si>
+  <si>
+    <t>1995-09-19 12:54:46</t>
   </si>
 </sst>
 </file>
@@ -4060,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BY13" sqref="BY13"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BZ11" sqref="BZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4854,7 +4878,7 @@
         <v>282</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="CC2" t="s">
         <v>191</v>
@@ -4980,7 +5004,7 @@
         <v>282</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="CC3" t="s">
         <v>191</v>
@@ -5103,7 +5127,7 @@
         <v>283</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="CC4" t="s">
         <v>191</v>
@@ -5226,7 +5250,7 @@
         <v>284</v>
       </c>
       <c r="BZ5" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="CC5" t="s">
         <v>191</v>
@@ -5349,7 +5373,7 @@
         <v>285</v>
       </c>
       <c r="BZ6" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="CC6" t="s">
         <v>191</v>
@@ -5472,7 +5496,7 @@
         <v>285</v>
       </c>
       <c r="BZ7" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="CC7" t="s">
         <v>191</v>
@@ -5597,7 +5621,7 @@
         <v>286</v>
       </c>
       <c r="BZ8" s="3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="CC8" t="s">
         <v>191</v>
@@ -5722,7 +5746,7 @@
         <v>287</v>
       </c>
       <c r="BZ9" s="3" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="CC9" t="s">
         <v>191</v>
@@ -5848,7 +5872,7 @@
         <v>288</v>
       </c>
       <c r="BZ10" s="3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="CC10" t="s">
         <v>191</v>
@@ -5973,7 +5997,7 @@
         <v>289</v>
       </c>
       <c r="BZ11" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="CC11" t="s">
         <v>191</v>

--- a/topo_alarm/alarm.xlsx
+++ b/topo_alarm/alarm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/Desktop/topo_alarm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92B1D9D-2987-B24E-9DB6-6E6B785075A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61ACFF4-9EEE-374C-A5D6-5226AEAD9B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2711,7 +2711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="323">
   <si>
     <t>Acked</t>
   </si>
@@ -3759,6 +3759,12 @@
   </si>
   <si>
     <t>2019-04-20 12:54:46</t>
+  </si>
+  <si>
+    <t>FJDSIGOI</t>
+  </si>
+  <si>
+    <t>YUOYIUGTF</t>
   </si>
 </sst>
 </file>
@@ -4178,10 +4184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GK23"/>
+  <dimension ref="A1:GK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BO23" sqref="BO23"/>
+    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
+      <selection activeCell="CV25" sqref="CV25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7680,6 +7686,242 @@
         <v>274</v>
       </c>
     </row>
+    <row r="24" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24">
+        <v>9498558833</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BZ24" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="CW24" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="DN24" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO24" s="2"/>
+      <c r="DQ24" s="2"/>
+      <c r="DR24" t="s">
+        <v>191</v>
+      </c>
+      <c r="DS24" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW24" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>191</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>191</v>
+      </c>
+      <c r="EC24" t="s">
+        <v>191</v>
+      </c>
+      <c r="ED24" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE24" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>191</v>
+      </c>
+      <c r="GD24" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25">
+        <v>9498558833</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO25" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BZ25" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="DN25" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO25" s="2"/>
+      <c r="DQ25" s="2"/>
+      <c r="DR25" t="s">
+        <v>191</v>
+      </c>
+      <c r="DS25" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW25" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX25" t="s">
+        <v>191</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA25" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB25" t="s">
+        <v>191</v>
+      </c>
+      <c r="EC25" t="s">
+        <v>191</v>
+      </c>
+      <c r="ED25" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE25" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF25" t="s">
+        <v>191</v>
+      </c>
+      <c r="GD25" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topo_alarm/alarm.xlsx
+++ b/topo_alarm/alarm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/Desktop/topo_alarm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61ACFF4-9EEE-374C-A5D6-5226AEAD9B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850883A-090A-5546-B068-F801ED842135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1284,10 +1284,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>text</t>
         </r>
@@ -1339,10 +1338,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>text</t>
         </r>
@@ -2711,7 +2709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="339">
   <si>
     <t>Acked</t>
   </si>
@@ -3541,10 +3539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DJKLERWOOBO RE FDLEGHOWPFF 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DJEEWE GTEEG 4 EO GBFGEE GGEFC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3558,10 +3552,6 @@
   </si>
   <si>
     <t>UJ EL Gfdeer - Oe Drewlk Lfdswr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UJ EL Gfdeer - Oe Drewlk Lfdswr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3589,30 +3579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FR_ERREF_DDEGF_EW_dfsft_wedf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE_LRD_WD_dfgew_diws</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE_RWE_KE_dfgee_fswb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE_RWE_KE_dfgee_fswb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVDRE_WDS_GRW_ET_fdsed_dfwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVDRE_WDS_GRW_ET_fdsed_dfwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FJWUJF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3689,9 +3655,6 @@
     <t>1995-09-19 12:54:46</t>
   </si>
   <si>
-    <t>DET Eiewo 2E - Jdsaw 2G</t>
-  </si>
-  <si>
     <t>2019-04-19 12:49:46</t>
   </si>
   <si>
@@ -3734,9 +3697,6 @@
     <t>2019-04-19 12:42:46</t>
   </si>
   <si>
-    <t>C052B_C00922OD_KGBAHARUCHENOR</t>
-  </si>
-  <si>
     <t>2019-04-20 12:54:56</t>
   </si>
   <si>
@@ -3764,7 +3724,85 @@
     <t>FJDSIGOI</t>
   </si>
   <si>
-    <t>YUOYIUGTF</t>
+    <t>DE_LRD_W</t>
+  </si>
+  <si>
+    <t>FR_ERREF_D</t>
+  </si>
+  <si>
+    <t>CVDRE_WDS_G</t>
+  </si>
+  <si>
+    <t>TE_RWE_KE_d</t>
+  </si>
+  <si>
+    <t>DE_LRD_WD_d</t>
+  </si>
+  <si>
+    <t>DJKLERWOOBO R</t>
+  </si>
+  <si>
+    <t>DJEEWE GTEEG 4</t>
+  </si>
+  <si>
+    <t>UJ EL Gfdeer - O</t>
+  </si>
+  <si>
+    <t>RE Or Egldfg H</t>
+  </si>
+  <si>
+    <t>DET Eiewo 2E - J</t>
+  </si>
+  <si>
+    <t>C052B_C00922</t>
+  </si>
+  <si>
+    <t>GD_FES</t>
+  </si>
+  <si>
+    <t>ED_GYE_WS</t>
+  </si>
+  <si>
+    <t>2019-05-02 12:54:11</t>
+  </si>
+  <si>
+    <t>2019-05-02 12:54:46</t>
+  </si>
+  <si>
+    <t>2019-05-02 12:49:46</t>
+  </si>
+  <si>
+    <t>GJKLJLEE</t>
+  </si>
+  <si>
+    <t>BKGIEIEW</t>
+  </si>
+  <si>
+    <t>PVOSWIRF</t>
+  </si>
+  <si>
+    <t>VDHJWQO</t>
+  </si>
+  <si>
+    <t>YUOYIUGT</t>
+  </si>
+  <si>
+    <t>GHR8_432535467</t>
+  </si>
+  <si>
+    <t>KOJ_HIE</t>
+  </si>
+  <si>
+    <t>VHE_XK</t>
+  </si>
+  <si>
+    <t>CHSH_QE</t>
+  </si>
+  <si>
+    <t>DHH_FEE</t>
+  </si>
+  <si>
+    <t>KIR6_4325398738</t>
   </si>
 </sst>
 </file>
@@ -4184,10 +4222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GK25"/>
+  <dimension ref="A1:GK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
-      <selection activeCell="CV25" sqref="CV25"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="CV17" sqref="CV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4977,10 +5015,10 @@
         <v>249</v>
       </c>
       <c r="BO2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="CC2" t="s">
         <v>191</v>
@@ -4992,22 +5030,22 @@
         <v>251</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="DN2" t="s">
         <v>193</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="DP2" t="s">
         <v>194</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="DR2" t="s">
         <v>191</v>
@@ -5046,7 +5084,7 @@
         <v>191</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="GE2" s="2"/>
     </row>
@@ -5079,7 +5117,7 @@
         <v>232</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AO3" t="s">
         <v>191</v>
@@ -5103,10 +5141,10 @@
         <v>249</v>
       </c>
       <c r="BO3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="CC3" t="s">
         <v>191</v>
@@ -5118,22 +5156,22 @@
         <v>214</v>
       </c>
       <c r="CV3" s="2" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="CW3" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DN3" t="s">
         <v>193</v>
       </c>
       <c r="DO3" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="DP3" t="s">
         <v>194</v>
       </c>
       <c r="DQ3" s="2" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="DR3" t="s">
         <v>191</v>
@@ -5172,7 +5210,7 @@
         <v>191</v>
       </c>
       <c r="GD3" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:193" x14ac:dyDescent="0.2">
@@ -5226,10 +5264,10 @@
         <v>218</v>
       </c>
       <c r="BO4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="BZ4" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="CC4" t="s">
         <v>191</v>
@@ -5241,22 +5279,22 @@
         <v>252</v>
       </c>
       <c r="CV4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CW4" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="CW4" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="DN4" t="s">
         <v>193</v>
       </c>
       <c r="DO4" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="DP4" t="s">
         <v>194</v>
       </c>
       <c r="DQ4" s="2" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="DR4" t="s">
         <v>191</v>
@@ -5295,7 +5333,7 @@
         <v>191</v>
       </c>
       <c r="GD4" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:193" x14ac:dyDescent="0.2">
@@ -5349,10 +5387,10 @@
         <v>215</v>
       </c>
       <c r="BO5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="BZ5" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="CC5" t="s">
         <v>191</v>
@@ -5364,22 +5402,22 @@
         <v>214</v>
       </c>
       <c r="CV5" s="2" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="CW5" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DN5" t="s">
         <v>193</v>
       </c>
       <c r="DO5" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="DP5" t="s">
         <v>192</v>
       </c>
       <c r="DQ5" s="2" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="DR5" t="s">
         <v>191</v>
@@ -5418,7 +5456,7 @@
         <v>191</v>
       </c>
       <c r="GD5" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:193" x14ac:dyDescent="0.2">
@@ -5472,10 +5510,10 @@
         <v>215</v>
       </c>
       <c r="BO6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="BZ6" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="CC6" t="s">
         <v>191</v>
@@ -5487,22 +5525,22 @@
         <v>218</v>
       </c>
       <c r="CV6" s="2" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="CW6" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DN6" t="s">
         <v>193</v>
       </c>
       <c r="DO6" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="DP6" t="s">
         <v>194</v>
       </c>
       <c r="DQ6" s="2" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="DR6" t="s">
         <v>191</v>
@@ -5541,7 +5579,7 @@
         <v>191</v>
       </c>
       <c r="GD6" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:193" x14ac:dyDescent="0.2">
@@ -5595,10 +5633,10 @@
         <v>215</v>
       </c>
       <c r="BO7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="BZ7" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="CC7" t="s">
         <v>191</v>
@@ -5610,22 +5648,22 @@
         <v>218</v>
       </c>
       <c r="CV7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CW7" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="CW7" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="DN7" t="s">
         <v>193</v>
       </c>
       <c r="DO7" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="DP7" t="s">
         <v>194</v>
       </c>
       <c r="DQ7" s="2" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="DR7" t="s">
         <v>191</v>
@@ -5664,7 +5702,7 @@
         <v>191</v>
       </c>
       <c r="GD7" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:193" x14ac:dyDescent="0.2">
@@ -5696,7 +5734,7 @@
         <v>238</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AO8" t="s">
         <v>191</v>
@@ -5720,10 +5758,10 @@
         <v>250</v>
       </c>
       <c r="BO8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BZ8" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="BZ8" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="CC8" t="s">
         <v>191</v>
@@ -5735,22 +5773,22 @@
         <v>252</v>
       </c>
       <c r="CV8" s="2" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="CW8" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="DN8" t="s">
         <v>196</v>
       </c>
       <c r="DO8" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="DP8" t="s">
         <v>194</v>
       </c>
       <c r="DQ8" s="2" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="DR8" t="s">
         <v>191</v>
@@ -5789,7 +5827,7 @@
         <v>191</v>
       </c>
       <c r="GD8" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:193" x14ac:dyDescent="0.2">
@@ -5821,7 +5859,7 @@
         <v>239</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AO9" t="s">
         <v>191</v>
@@ -5845,10 +5883,10 @@
         <v>250</v>
       </c>
       <c r="BO9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BZ9" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="BZ9" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="CC9" t="s">
         <v>191</v>
@@ -5860,22 +5898,22 @@
         <v>252</v>
       </c>
       <c r="CV9" s="2" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="CW9" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="DN9" t="s">
         <v>196</v>
       </c>
       <c r="DO9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="DP9" t="s">
         <v>194</v>
       </c>
       <c r="DQ9" s="2" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="DR9" t="s">
         <v>191</v>
@@ -5914,7 +5952,7 @@
         <v>191</v>
       </c>
       <c r="GD9" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:193" x14ac:dyDescent="0.2">
@@ -5947,7 +5985,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="W10" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AO10" t="s">
         <v>191</v>
@@ -5971,10 +6009,10 @@
         <v>214</v>
       </c>
       <c r="BO10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ10" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="BZ10" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="CC10" t="s">
         <v>191</v>
@@ -5986,22 +6024,22 @@
         <v>249</v>
       </c>
       <c r="CV10" s="2" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="CW10" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DN10" t="s">
         <v>193</v>
       </c>
       <c r="DO10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="DP10" t="s">
         <v>192</v>
       </c>
       <c r="DQ10" s="2" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="DR10" t="s">
         <v>191</v>
@@ -6040,7 +6078,7 @@
         <v>191</v>
       </c>
       <c r="GD10" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:193" x14ac:dyDescent="0.2">
@@ -6072,7 +6110,7 @@
         <v>240</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AO11" t="s">
         <v>191</v>
@@ -6096,10 +6134,10 @@
         <v>215</v>
       </c>
       <c r="BO11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="BZ11" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="BZ11" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="CC11" t="s">
         <v>191</v>
@@ -6111,22 +6149,22 @@
         <v>249</v>
       </c>
       <c r="CV11" s="2" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="CW11" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DN11" t="s">
         <v>196</v>
       </c>
       <c r="DO11" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="DP11" t="s">
         <v>194</v>
       </c>
       <c r="DQ11" s="2" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="DR11" t="s">
         <v>191</v>
@@ -6165,7 +6203,7 @@
         <v>191</v>
       </c>
       <c r="GD11" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:193" x14ac:dyDescent="0.2">
@@ -6197,7 +6235,7 @@
         <v>240</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AO12" t="s">
         <v>191</v>
@@ -6221,10 +6259,10 @@
         <v>214</v>
       </c>
       <c r="BO12" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="BZ12" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="CC12" t="s">
         <v>191</v>
@@ -6236,10 +6274,10 @@
         <v>214</v>
       </c>
       <c r="CV12" s="2" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="CW12" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DN12" t="s">
         <v>196</v>
@@ -6283,32 +6321,32 @@
         <v>191</v>
       </c>
       <c r="GD12" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:193" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E13" s="6">
         <v>9498558833</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -6324,7 +6362,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -6348,7 +6386,7 @@
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AT13" s="6"/>
       <c r="AU13" s="6"/>
@@ -6360,10 +6398,10 @@
       <c r="BA13" s="6"/>
       <c r="BB13" s="6"/>
       <c r="BC13" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="BD13" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
@@ -6376,7 +6414,7 @@
       <c r="BM13" s="6"/>
       <c r="BN13" s="6"/>
       <c r="BO13" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="BP13" s="6"/>
       <c r="BQ13" s="6"/>
@@ -6389,7 +6427,7 @@
       <c r="BX13" s="6"/>
       <c r="BY13" s="6"/>
       <c r="BZ13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="CA13" s="6"/>
       <c r="CB13" s="6"/>
@@ -6401,7 +6439,7 @@
       <c r="CH13" s="6"/>
       <c r="CI13" s="6"/>
       <c r="CJ13" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="CK13" s="6"/>
       <c r="CL13" s="6"/>
@@ -6415,10 +6453,10 @@
       <c r="CT13" s="6"/>
       <c r="CU13" s="6"/>
       <c r="CV13" s="5" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="CW13" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="CX13" s="6"/>
       <c r="CY13" s="6"/>
@@ -6439,7 +6477,6 @@
       <c r="DN13" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="DO13" s="5"/>
       <c r="DP13" s="6"/>
       <c r="DQ13" s="5"/>
       <c r="DR13" s="6"/>
@@ -6507,7 +6544,7 @@
       <c r="GB13" s="6"/>
       <c r="GC13" s="6"/>
       <c r="GD13" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="GE13" s="6"/>
       <c r="GF13" s="6"/>
@@ -6568,10 +6605,10 @@
         <v>214</v>
       </c>
       <c r="BO14" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="BZ14" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="CC14" t="s">
         <v>191</v>
@@ -6583,7 +6620,7 @@
         <v>214</v>
       </c>
       <c r="CV14" s="2" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="CW14" s="2" t="s">
         <v>253</v>
@@ -6591,7 +6628,7 @@
       <c r="DN14" t="s">
         <v>193</v>
       </c>
-      <c r="DO14" s="2"/>
+      <c r="DO14" s="5"/>
       <c r="DQ14" s="2"/>
       <c r="DR14" t="s">
         <v>191</v>
@@ -6630,7 +6667,7 @@
         <v>191</v>
       </c>
       <c r="GD14" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="GE14" s="2"/>
     </row>
@@ -6663,7 +6700,7 @@
         <v>232</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AO15" t="s">
         <v>191</v>
@@ -6687,10 +6724,10 @@
         <v>214</v>
       </c>
       <c r="BO15" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="BZ15" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="CC15" t="s">
         <v>191</v>
@@ -6702,7 +6739,7 @@
         <v>214</v>
       </c>
       <c r="CV15" s="2" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="CW15" s="2" t="s">
         <v>253</v>
@@ -6749,7 +6786,7 @@
         <v>191</v>
       </c>
       <c r="GD15" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:193" x14ac:dyDescent="0.2">
@@ -6803,10 +6840,10 @@
         <v>214</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="BZ16" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="CC16" t="s">
         <v>191</v>
@@ -6818,10 +6855,10 @@
         <v>214</v>
       </c>
       <c r="CV16" s="2" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="CW16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="DN16" t="s">
         <v>193</v>
@@ -6865,7 +6902,7 @@
         <v>191</v>
       </c>
       <c r="GD16" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:186" x14ac:dyDescent="0.2">
@@ -6919,10 +6956,10 @@
         <v>214</v>
       </c>
       <c r="BO17" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="BZ17" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="CC17" t="s">
         <v>191</v>
@@ -6934,10 +6971,10 @@
         <v>214</v>
       </c>
       <c r="CV17" s="2" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="CW17" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="DN17" t="s">
         <v>193</v>
@@ -6981,7 +7018,7 @@
         <v>191</v>
       </c>
       <c r="GD17" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:186" x14ac:dyDescent="0.2">
@@ -7035,10 +7072,10 @@
         <v>214</v>
       </c>
       <c r="BO18" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="BZ18" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="CC18" t="s">
         <v>191</v>
@@ -7050,15 +7087,14 @@
         <v>214</v>
       </c>
       <c r="CV18" s="2" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="CW18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="DN18" t="s">
         <v>193</v>
       </c>
-      <c r="DO18" s="2"/>
       <c r="DQ18" s="2"/>
       <c r="DR18" t="s">
         <v>191</v>
@@ -7097,7 +7133,7 @@
         <v>191</v>
       </c>
       <c r="GD18" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:186" x14ac:dyDescent="0.2">
@@ -7151,10 +7187,10 @@
         <v>214</v>
       </c>
       <c r="BO19" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="BZ19" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="CC19" t="s">
         <v>191</v>
@@ -7166,10 +7202,10 @@
         <v>214</v>
       </c>
       <c r="CV19" s="2" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="CW19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="DN19" t="s">
         <v>193</v>
@@ -7213,7 +7249,7 @@
         <v>191</v>
       </c>
       <c r="GD19" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:186" x14ac:dyDescent="0.2">
@@ -7245,7 +7281,7 @@
         <v>238</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AO20" t="s">
         <v>191</v>
@@ -7269,10 +7305,10 @@
         <v>214</v>
       </c>
       <c r="BO20" s="3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="BZ20" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="CC20" t="s">
         <v>191</v>
@@ -7284,10 +7320,10 @@
         <v>214</v>
       </c>
       <c r="CV20" s="2" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="CW20" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="DN20" t="s">
         <v>196</v>
@@ -7330,7 +7366,7 @@
         <v>191</v>
       </c>
       <c r="GD20" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:186" x14ac:dyDescent="0.2">
@@ -7362,7 +7398,7 @@
         <v>238</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AO21" t="s">
         <v>191</v>
@@ -7386,10 +7422,10 @@
         <v>214</v>
       </c>
       <c r="BO21" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="BZ21" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="CC21" t="s">
         <v>191</v>
@@ -7401,10 +7437,10 @@
         <v>214</v>
       </c>
       <c r="CV21" s="2" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="CW21" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="DN21" t="s">
         <v>196</v>
@@ -7447,7 +7483,7 @@
         <v>191</v>
       </c>
       <c r="GD21" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:186" x14ac:dyDescent="0.2">
@@ -7480,7 +7516,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="W22" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AO22" t="s">
         <v>191</v>
@@ -7504,10 +7540,10 @@
         <v>214</v>
       </c>
       <c r="BO22" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="BZ22" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="CC22" t="s">
         <v>191</v>
@@ -7519,10 +7555,10 @@
         <v>214</v>
       </c>
       <c r="CV22" s="2" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="CW22" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DN22" t="s">
         <v>193</v>
@@ -7565,7 +7601,7 @@
         <v>191</v>
       </c>
       <c r="GD22" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:186" x14ac:dyDescent="0.2">
@@ -7597,7 +7633,7 @@
         <v>240</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s">
         <v>191</v>
@@ -7621,10 +7657,10 @@
         <v>214</v>
       </c>
       <c r="BO23" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="BZ23" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="CC23" t="s">
         <v>191</v>
@@ -7636,10 +7672,10 @@
         <v>214</v>
       </c>
       <c r="CV23" s="2" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="CW23" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DN23" t="s">
         <v>196</v>
@@ -7683,7 +7719,7 @@
         <v>191</v>
       </c>
       <c r="GD23" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:186" x14ac:dyDescent="0.2">
@@ -7715,7 +7751,7 @@
         <v>240</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AO24" t="s">
         <v>191</v>
@@ -7739,10 +7775,10 @@
         <v>214</v>
       </c>
       <c r="BO24" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="BZ24" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="CC24" t="s">
         <v>191</v>
@@ -7754,10 +7790,10 @@
         <v>214</v>
       </c>
       <c r="CV24" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="CW24" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DN24" t="s">
         <v>196</v>
@@ -7801,7 +7837,7 @@
         <v>191</v>
       </c>
       <c r="GD24" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:186" x14ac:dyDescent="0.2">
@@ -7833,7 +7869,7 @@
         <v>240</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s">
         <v>191</v>
@@ -7857,10 +7893,10 @@
         <v>214</v>
       </c>
       <c r="BO25" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="BZ25" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="CC25" t="s">
         <v>191</v>
@@ -7872,10 +7908,10 @@
         <v>214</v>
       </c>
       <c r="CV25" s="2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="CW25" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DN25" t="s">
         <v>196</v>
@@ -7919,7 +7955,508 @@
         <v>191</v>
       </c>
       <c r="GD25" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26">
+        <v>4564657888</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="W26" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO26" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="BZ26" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV26" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="CW26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DN26" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO26" t="s">
+        <v>333</v>
+      </c>
+      <c r="DP26">
+        <v>1</v>
+      </c>
+      <c r="DQ26" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DR26" t="s">
+        <v>191</v>
+      </c>
+      <c r="DS26" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW26" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX26" t="s">
+        <v>191</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA26" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB26" t="s">
+        <v>191</v>
+      </c>
+      <c r="EC26" t="s">
+        <v>191</v>
+      </c>
+      <c r="ED26" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE26" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF26" t="s">
+        <v>191</v>
+      </c>
+      <c r="GD26" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27">
+        <v>9498558833</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO27" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="BZ27" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV27" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="CW27" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DN27" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="DP27">
+        <v>2</v>
+      </c>
+      <c r="DQ27" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="DR27" t="s">
+        <v>191</v>
+      </c>
+      <c r="DS27" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW27" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>191</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA27" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB27" t="s">
+        <v>191</v>
+      </c>
+      <c r="EC27" t="s">
+        <v>191</v>
+      </c>
+      <c r="ED27" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE27" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF27" t="s">
+        <v>191</v>
+      </c>
+      <c r="GD27" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28">
+        <v>9498558833</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO28" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="BZ28" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV28" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="CW28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DN28" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO28" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="DP28">
+        <v>2</v>
+      </c>
+      <c r="DQ28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="DR28" t="s">
+        <v>191</v>
+      </c>
+      <c r="DS28" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW28" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX28" t="s">
+        <v>191</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA28" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB28" t="s">
+        <v>191</v>
+      </c>
+      <c r="EC28" t="s">
+        <v>191</v>
+      </c>
+      <c r="ED28" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE28" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF28" t="s">
+        <v>191</v>
+      </c>
+      <c r="GD28" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:186" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29">
+        <v>9498558833</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO29" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="BZ29" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV29" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="CW29" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DN29" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="DP29">
+        <v>1</v>
+      </c>
+      <c r="DQ29" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="DR29" t="s">
+        <v>191</v>
+      </c>
+      <c r="DS29" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW29" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX29" t="s">
+        <v>191</v>
+      </c>
+      <c r="DY29" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ29" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA29" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB29" t="s">
+        <v>191</v>
+      </c>
+      <c r="EC29" t="s">
+        <v>191</v>
+      </c>
+      <c r="ED29" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE29" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF29" t="s">
+        <v>191</v>
+      </c>
+      <c r="GD29" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/topo_alarm/alarm.xlsx
+++ b/topo_alarm/alarm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22205/Desktop/topo_alarm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850883A-090A-5546-B068-F801ED842135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5F2387-814D-F245-8266-103BF3CA5E71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="340">
   <si>
     <t>Acked</t>
   </si>
@@ -3803,6 +3803,9 @@
   </si>
   <si>
     <t>KIR6_4325398738</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:00:00</t>
   </si>
 </sst>
 </file>
@@ -4224,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="CV17" sqref="CV17"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BO25" sqref="BO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7893,7 +7896,7 @@
         <v>214</v>
       </c>
       <c r="BO25" s="3" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="BZ25" s="3" t="s">
         <v>288</v>
